--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1238,6 +1238,3161 @@
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131085613</v>
+      </c>
+      <c r="B7" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>585222</v>
+      </c>
+      <c r="R7" t="n">
+        <v>7060481</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131086958</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>585165</v>
+      </c>
+      <c r="R8" t="n">
+        <v>7060565</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131085805</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>585215</v>
+      </c>
+      <c r="R9" t="n">
+        <v>7060513</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131092646</v>
+      </c>
+      <c r="B10" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>585082</v>
+      </c>
+      <c r="R10" t="n">
+        <v>7060264</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131085696</v>
+      </c>
+      <c r="B11" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>585207</v>
+      </c>
+      <c r="R11" t="n">
+        <v>7060471</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131087481</v>
+      </c>
+      <c r="B12" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>585150</v>
+      </c>
+      <c r="R12" t="n">
+        <v>7060657</v>
+      </c>
+      <c r="S12" t="n">
+        <v>15</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131085209</v>
+      </c>
+      <c r="B13" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>585267</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7060286</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>11:13</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131085114</v>
+      </c>
+      <c r="B14" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>585200</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7060231</v>
+      </c>
+      <c r="S14" t="n">
+        <v>15</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131089847</v>
+      </c>
+      <c r="B15" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>585024</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7060313</v>
+      </c>
+      <c r="S15" t="n">
+        <v>15</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>13:32</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131092632</v>
+      </c>
+      <c r="B16" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>585099</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7060260</v>
+      </c>
+      <c r="S16" t="n">
+        <v>15</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131085107</v>
+      </c>
+      <c r="B17" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>585194</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7060227</v>
+      </c>
+      <c r="S17" t="n">
+        <v>15</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131086957</v>
+      </c>
+      <c r="B18" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>585162</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7060573</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131085737</v>
+      </c>
+      <c r="B19" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>585170</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7060469</v>
+      </c>
+      <c r="S19" t="n">
+        <v>15</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131085446</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>585301</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7060488</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131092560</v>
+      </c>
+      <c r="B21" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>585129</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7060254</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131092554</v>
+      </c>
+      <c r="B22" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>585147</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7060312</v>
+      </c>
+      <c r="S22" t="n">
+        <v>15</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131085201</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>585260</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7060264</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>11:11</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131089835</v>
+      </c>
+      <c r="B24" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>585046</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7060333</v>
+      </c>
+      <c r="S24" t="n">
+        <v>15</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131085180</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>585223</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7060252</v>
+      </c>
+      <c r="S25" t="n">
+        <v>15</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131087026</v>
+      </c>
+      <c r="B26" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>585192</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7060563</v>
+      </c>
+      <c r="S26" t="n">
+        <v>15</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>12:27</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131085159</v>
+      </c>
+      <c r="B27" t="n">
+        <v>56456</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>206004</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Skogshare</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Lepus timidus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>585222</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7060247</v>
+      </c>
+      <c r="S27" t="n">
+        <v>15</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131085178</v>
+      </c>
+      <c r="B28" t="n">
+        <v>91828</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>585225</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7060258</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131085171</v>
+      </c>
+      <c r="B29" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>585222</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7060254</v>
+      </c>
+      <c r="S29" t="n">
+        <v>15</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131085240</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>585289</v>
+      </c>
+      <c r="R30" t="n">
+        <v>7060293</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131085484</v>
+      </c>
+      <c r="B31" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>585303</v>
+      </c>
+      <c r="R31" t="n">
+        <v>7060488</v>
+      </c>
+      <c r="S31" t="n">
+        <v>15</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131092585</v>
+      </c>
+      <c r="B32" t="n">
+        <v>91804</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>1108</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Harticka</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>585130</v>
+      </c>
+      <c r="R32" t="n">
+        <v>7060263</v>
+      </c>
+      <c r="S32" t="n">
+        <v>15</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131092590</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>585145</v>
+      </c>
+      <c r="R33" t="n">
+        <v>7060230</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Kim Hultgren</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131085126</v>
+      </c>
+      <c r="B34" t="n">
+        <v>57064</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>102612</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Järpe</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Tetrastes bonasia</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>585219</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7060240</v>
+      </c>
+      <c r="S34" t="n">
+        <v>15</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131085569</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>585249</v>
+      </c>
+      <c r="R35" t="n">
+        <v>7060505</v>
+      </c>
+      <c r="S35" t="n">
+        <v>15</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131087388</v>
+      </c>
+      <c r="B36" t="n">
+        <v>79243</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>585131</v>
+      </c>
+      <c r="R36" t="n">
+        <v>7060627</v>
+      </c>
+      <c r="S36" t="n">
+        <v>15</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Junsele</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Daniel Rutschman</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131085613</v>
+        <v>131085805</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,42 +1251,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585222</v>
+        <v>585215</v>
       </c>
       <c r="R7" t="n">
-        <v>7060481</v>
+        <v>7060513</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1315,7 +1310,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1325,12 +1320,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1345,22 +1335,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131086958</v>
+        <v>131085613</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1368,37 +1358,42 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585165</v>
+        <v>585222</v>
       </c>
       <c r="R8" t="n">
-        <v>7060565</v>
+        <v>7060481</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1427,7 +1422,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1432,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1452,19 +1452,19 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131085805</v>
+        <v>131086958</v>
       </c>
       <c r="B9" t="n">
         <v>79243</v>
@@ -1499,10 +1499,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585215</v>
+        <v>585165</v>
       </c>
       <c r="R9" t="n">
-        <v>7060513</v>
+        <v>7060565</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131086957</v>
+        <v>131085737</v>
       </c>
       <c r="B18" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,42 +2402,37 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585162</v>
+        <v>585170</v>
       </c>
       <c r="R18" t="n">
-        <v>7060573</v>
+        <v>7060469</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2466,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2476,12 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2496,19 +2486,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131085737</v>
+        <v>131085446</v>
       </c>
       <c r="B19" t="n">
         <v>79243</v>
@@ -2543,13 +2533,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585170</v>
+        <v>585301</v>
       </c>
       <c r="R19" t="n">
-        <v>7060469</v>
+        <v>7060488</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2578,7 +2568,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2588,7 +2578,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2603,22 +2593,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131085446</v>
+        <v>131086957</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2626,34 +2616,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585301</v>
+        <v>585162</v>
       </c>
       <c r="R20" t="n">
-        <v>7060488</v>
+        <v>7060573</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2685,7 +2680,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2695,7 +2690,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2722,10 +2722,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092560</v>
+        <v>131092554</v>
       </c>
       <c r="B21" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2733,37 +2733,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585129</v>
+        <v>585147</v>
       </c>
       <c r="R21" t="n">
-        <v>7060254</v>
+        <v>7060312</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2790,19 +2795,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>15:17</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2817,22 +2817,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131092554</v>
+        <v>131092560</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,42 +2840,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585147</v>
+        <v>585129</v>
       </c>
       <c r="R22" t="n">
-        <v>7060312</v>
+        <v>7060254</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2902,14 +2897,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2924,12 +2924,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085178</v>
+        <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,19 +3482,23 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3502,13 +3506,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585225</v>
+        <v>585222</v>
       </c>
       <c r="R28" t="n">
-        <v>7060258</v>
+        <v>7060254</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3535,19 +3539,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3562,22 +3556,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085171</v>
+        <v>131085484</v>
       </c>
       <c r="B29" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,34 +3579,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585222</v>
+        <v>585303</v>
       </c>
       <c r="R29" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3645,6 +3644,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3671,10 +3675,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085240</v>
+        <v>131085178</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,39 +3686,30 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585289</v>
+        <v>585225</v>
       </c>
       <c r="R30" t="n">
-        <v>7060293</v>
+        <v>7060258</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3746,7 +3741,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -3756,12 +3751,7 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3788,7 +3778,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085484</v>
+        <v>131085240</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3828,13 +3818,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585303</v>
+        <v>585289</v>
       </c>
       <c r="R31" t="n">
-        <v>7060488</v>
+        <v>7060293</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3861,14 +3851,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Färska ringhack gran</t>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3883,22 +3883,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131092585</v>
+        <v>131085569</v>
       </c>
       <c r="B32" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585130</v>
+        <v>585249</v>
       </c>
       <c r="R32" t="n">
-        <v>7060263</v>
+        <v>7060505</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131092590</v>
+        <v>131085126</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,37 +4003,42 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585145</v>
+        <v>585219</v>
       </c>
       <c r="R33" t="n">
-        <v>7060230</v>
+        <v>7060240</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4060,19 +4065,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4087,22 +4082,22 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131085126</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
-        <v>57064</v>
+        <v>79243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4110,39 +4105,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585219</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060240</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4201,10 +4191,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131085569</v>
+        <v>131092585</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4212,21 +4202,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4236,10 +4226,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585249</v>
+        <v>585130</v>
       </c>
       <c r="R35" t="n">
-        <v>7060505</v>
+        <v>7060263</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4298,7 +4288,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B36" t="n">
         <v>79243</v>
@@ -4333,13 +4323,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R36" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4366,9 +4356,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4383,12 +4383,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1347,10 +1347,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131085613</v>
+        <v>131092646</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1358,39 +1358,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585222</v>
+        <v>585082</v>
       </c>
       <c r="R8" t="n">
-        <v>7060481</v>
+        <v>7060264</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1420,24 +1415,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1571,10 +1551,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131092646</v>
+        <v>131085613</v>
       </c>
       <c r="B10" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1582,34 +1562,39 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585082</v>
+        <v>585222</v>
       </c>
       <c r="R10" t="n">
-        <v>7060264</v>
+        <v>7060481</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1639,9 +1624,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1668,10 +1668,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131085696</v>
+        <v>131087481</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,42 +1679,33 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>585207</v>
+        <v>585150</v>
       </c>
       <c r="R11" t="n">
-        <v>7060471</v>
+        <v>7060657</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1741,24 +1732,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1773,22 +1749,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131087481</v>
+        <v>131085696</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1796,33 +1772,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>585150</v>
+        <v>585207</v>
       </c>
       <c r="R12" t="n">
-        <v>7060657</v>
+        <v>7060471</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1849,9 +1834,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,12 +1866,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131092632</v>
+        <v>131085107</v>
       </c>
       <c r="B16" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2202,39 +2202,30 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>585099</v>
+        <v>585194</v>
       </c>
       <c r="R16" t="n">
-        <v>7060260</v>
+        <v>7060227</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2267,11 +2258,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2298,10 +2284,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131085107</v>
+        <v>131092632</v>
       </c>
       <c r="B17" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2309,30 +2295,39 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>585194</v>
+        <v>585099</v>
       </c>
       <c r="R17" t="n">
-        <v>7060227</v>
+        <v>7060260</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2365,6 +2360,11 @@
       <c r="AA17" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack, tall</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131086957</v>
+        <v>131092560</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,39 +2616,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585162</v>
+        <v>585129</v>
       </c>
       <c r="R20" t="n">
-        <v>7060573</v>
+        <v>7060254</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2680,7 +2675,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2690,12 +2685,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2829,10 +2819,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131092560</v>
+        <v>131086957</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,34 +2830,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585129</v>
+        <v>585162</v>
       </c>
       <c r="R22" t="n">
-        <v>7060254</v>
+        <v>7060573</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2894,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2909,7 +2904,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085171</v>
+        <v>131085178</v>
       </c>
       <c r="B28" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,23 +3482,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3506,13 +3502,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585222</v>
+        <v>585225</v>
       </c>
       <c r="R28" t="n">
-        <v>7060254</v>
+        <v>7060258</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3539,9 +3535,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3556,22 +3562,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085484</v>
+        <v>131085171</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3579,39 +3585,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585303</v>
+        <v>585222</v>
       </c>
       <c r="R29" t="n">
-        <v>7060488</v>
+        <v>7060254</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3644,11 +3645,6 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3675,10 +3671,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085178</v>
+        <v>131085484</v>
       </c>
       <c r="B30" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3686,33 +3682,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585225</v>
+        <v>585303</v>
       </c>
       <c r="R30" t="n">
-        <v>7060258</v>
+        <v>7060488</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3739,19 +3744,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:08</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3766,12 +3766,12 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131085126</v>
+        <v>131087388</v>
       </c>
       <c r="B33" t="n">
-        <v>57064</v>
+        <v>79243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,39 +4003,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585219</v>
+        <v>585131</v>
       </c>
       <c r="R33" t="n">
-        <v>7060240</v>
+        <v>7060627</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4094,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4129,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R34" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4162,9 +4157,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4179,12 +4184,12 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
@@ -4288,10 +4293,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131092590</v>
+        <v>131085126</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4299,37 +4304,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585145</v>
+        <v>585219</v>
       </c>
       <c r="R36" t="n">
-        <v>7060230</v>
+        <v>7060240</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4356,19 +4366,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4383,12 +4383,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131092560</v>
+        <v>131092554</v>
       </c>
       <c r="B20" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,37 +2616,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585129</v>
+        <v>585147</v>
       </c>
       <c r="R20" t="n">
-        <v>7060254</v>
+        <v>7060312</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2673,19 +2678,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>15:17</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2700,19 +2700,19 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092554</v>
+        <v>131086957</v>
       </c>
       <c r="B21" t="n">
         <v>57884</v>
@@ -2743,7 +2743,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2752,13 +2752,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585147</v>
+        <v>585162</v>
       </c>
       <c r="R21" t="n">
-        <v>7060312</v>
+        <v>7060573</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2785,14 +2785,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>Äldre ringhack, gran</t>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,22 +2817,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131086957</v>
+        <v>131092560</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2830,39 +2840,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585162</v>
+        <v>585129</v>
       </c>
       <c r="R22" t="n">
-        <v>7060573</v>
+        <v>7060254</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2894,7 +2899,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2904,12 +2909,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085178</v>
+        <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>91828</v>
+        <v>91804</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,19 +3482,23 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3502,13 +3506,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585225</v>
+        <v>585222</v>
       </c>
       <c r="R28" t="n">
-        <v>7060258</v>
+        <v>7060254</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3535,19 +3539,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3562,22 +3556,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085171</v>
+        <v>131085178</v>
       </c>
       <c r="B29" t="n">
-        <v>91804</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,23 +3579,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3609,13 +3599,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585222</v>
+        <v>585225</v>
       </c>
       <c r="R29" t="n">
-        <v>7060254</v>
+        <v>7060258</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3642,9 +3632,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3659,12 +3659,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131085569</v>
+        <v>131092585</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585249</v>
+        <v>585130</v>
       </c>
       <c r="R32" t="n">
-        <v>7060505</v>
+        <v>7060263</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131087388</v>
+        <v>131085569</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585131</v>
+        <v>585249</v>
       </c>
       <c r="R33" t="n">
-        <v>7060627</v>
+        <v>7060505</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131092590</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585145</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060230</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,19 +4157,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4184,22 +4174,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092585</v>
+        <v>131092590</v>
       </c>
       <c r="B35" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4207,21 +4197,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4231,13 +4221,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585130</v>
+        <v>585145</v>
       </c>
       <c r="R35" t="n">
-        <v>7060263</v>
+        <v>7060230</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4264,9 +4254,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,12 +4281,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1668,10 +1668,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131087481</v>
+        <v>131085696</v>
       </c>
       <c r="B11" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,33 +1679,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>585150</v>
+        <v>585207</v>
       </c>
       <c r="R11" t="n">
-        <v>7060657</v>
+        <v>7060471</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1732,9 +1741,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1749,22 +1773,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131085696</v>
+        <v>131087481</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1772,42 +1796,33 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>585207</v>
+        <v>585150</v>
       </c>
       <c r="R12" t="n">
-        <v>7060471</v>
+        <v>7060657</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1834,24 +1849,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,12 +1866,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131085737</v>
+        <v>131092560</v>
       </c>
       <c r="B18" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585170</v>
+        <v>585129</v>
       </c>
       <c r="R18" t="n">
-        <v>7060469</v>
+        <v>7060254</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2486,22 +2486,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131085446</v>
+        <v>131092554</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,37 +2509,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585301</v>
+        <v>585147</v>
       </c>
       <c r="R19" t="n">
-        <v>7060488</v>
+        <v>7060312</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2566,19 +2571,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>11:41</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2593,19 +2593,19 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131092554</v>
+        <v>131086957</v>
       </c>
       <c r="B20" t="n">
         <v>57884</v>
@@ -2636,7 +2636,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2645,13 +2645,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585147</v>
+        <v>585162</v>
       </c>
       <c r="R20" t="n">
-        <v>7060312</v>
+        <v>7060573</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2678,14 +2678,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>12:21</t>
+        </is>
+      </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>Äldre ringhack, gran</t>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2700,22 +2710,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131086957</v>
+        <v>131085737</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,42 +2733,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585162</v>
+        <v>585170</v>
       </c>
       <c r="R21" t="n">
-        <v>7060573</v>
+        <v>7060469</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2787,7 +2792,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
@@ -2797,12 +2802,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2817,22 +2817,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131092560</v>
+        <v>131085446</v>
       </c>
       <c r="B22" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,21 +2840,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2864,10 +2864,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585129</v>
+        <v>585301</v>
       </c>
       <c r="R22" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085171</v>
+        <v>131085484</v>
       </c>
       <c r="B28" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,34 +3482,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585222</v>
+        <v>585303</v>
       </c>
       <c r="R28" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3542,6 +3547,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3568,10 +3578,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085178</v>
+        <v>131085240</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3579,30 +3589,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585225</v>
+        <v>585289</v>
       </c>
       <c r="R29" t="n">
-        <v>7060258</v>
+        <v>7060293</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3634,7 +3653,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3644,7 +3663,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3671,10 +3695,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085484</v>
+        <v>131085171</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,39 +3706,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585303</v>
+        <v>585222</v>
       </c>
       <c r="R30" t="n">
-        <v>7060488</v>
+        <v>7060254</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3747,11 +3766,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3778,10 +3792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085240</v>
+        <v>131085178</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3789,39 +3803,30 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585289</v>
+        <v>585225</v>
       </c>
       <c r="R31" t="n">
-        <v>7060293</v>
+        <v>7060258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3853,7 +3858,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3863,12 +3868,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131092585</v>
+        <v>131085569</v>
       </c>
       <c r="B32" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585130</v>
+        <v>585249</v>
       </c>
       <c r="R32" t="n">
-        <v>7060263</v>
+        <v>7060505</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131085569</v>
+        <v>131087388</v>
       </c>
       <c r="B33" t="n">
         <v>79243</v>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585249</v>
+        <v>585131</v>
       </c>
       <c r="R33" t="n">
-        <v>7060505</v>
+        <v>7060627</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R34" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,9 +4157,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4174,22 +4184,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092590</v>
+        <v>131085126</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4197,37 +4207,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585145</v>
+        <v>585219</v>
       </c>
       <c r="R35" t="n">
-        <v>7060230</v>
+        <v>7060240</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4254,19 +4269,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,22 +4286,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131085126</v>
+        <v>131092585</v>
       </c>
       <c r="B36" t="n">
-        <v>57064</v>
+        <v>91804</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4304,39 +4309,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>102612</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585219</v>
+        <v>585130</v>
       </c>
       <c r="R36" t="n">
-        <v>7060240</v>
+        <v>7060263</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -2498,10 +2498,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131092554</v>
+        <v>131085737</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,39 +2509,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585147</v>
+        <v>585170</v>
       </c>
       <c r="R19" t="n">
-        <v>7060312</v>
+        <v>7060469</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2571,14 +2566,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131086957</v>
+        <v>131085446</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,39 +2616,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585162</v>
+        <v>585301</v>
       </c>
       <c r="R20" t="n">
-        <v>7060573</v>
+        <v>7060488</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2680,7 +2675,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2690,12 +2685,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2722,10 +2712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131085737</v>
+        <v>131092554</v>
       </c>
       <c r="B21" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2733,34 +2723,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585170</v>
+        <v>585147</v>
       </c>
       <c r="R21" t="n">
-        <v>7060469</v>
+        <v>7060312</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2790,19 +2785,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>11:58</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2829,10 +2819,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131085446</v>
+        <v>131086957</v>
       </c>
       <c r="B22" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,34 +2830,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585301</v>
+        <v>585162</v>
       </c>
       <c r="R22" t="n">
-        <v>7060488</v>
+        <v>7060573</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2894,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2909,7 +2904,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085484</v>
+        <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>91804</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,39 +3482,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585303</v>
+        <v>585222</v>
       </c>
       <c r="R28" t="n">
-        <v>7060488</v>
+        <v>7060254</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3547,11 +3542,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3578,10 +3568,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085240</v>
+        <v>131085178</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91828</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3589,39 +3579,30 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585289</v>
+        <v>585225</v>
       </c>
       <c r="R29" t="n">
-        <v>7060293</v>
+        <v>7060258</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3653,7 +3634,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3663,12 +3644,7 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3695,10 +3671,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085171</v>
+        <v>131085484</v>
       </c>
       <c r="B30" t="n">
-        <v>91804</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3706,34 +3682,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585222</v>
+        <v>585303</v>
       </c>
       <c r="R30" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3766,6 +3747,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3792,10 +3778,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085178</v>
+        <v>131085240</v>
       </c>
       <c r="B31" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3803,30 +3789,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585225</v>
+        <v>585289</v>
       </c>
       <c r="R31" t="n">
-        <v>7060258</v>
+        <v>7060293</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3858,7 +3853,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3868,7 +3863,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131085569</v>
+        <v>131092585</v>
       </c>
       <c r="B32" t="n">
-        <v>79243</v>
+        <v>91804</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585249</v>
+        <v>585130</v>
       </c>
       <c r="R32" t="n">
-        <v>7060505</v>
+        <v>7060263</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131087388</v>
+        <v>131085126</v>
       </c>
       <c r="B33" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,34 +4003,39 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585131</v>
+        <v>585219</v>
       </c>
       <c r="R33" t="n">
-        <v>7060627</v>
+        <v>7060240</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4094,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131092590</v>
+        <v>131085569</v>
       </c>
       <c r="B34" t="n">
         <v>79243</v>
@@ -4124,13 +4129,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585145</v>
+        <v>585249</v>
       </c>
       <c r="R34" t="n">
-        <v>7060230</v>
+        <v>7060505</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,19 +4162,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4184,22 +4179,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131085126</v>
+        <v>131087388</v>
       </c>
       <c r="B35" t="n">
-        <v>57064</v>
+        <v>79243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4207,39 +4202,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585219</v>
+        <v>585131</v>
       </c>
       <c r="R35" t="n">
-        <v>7060240</v>
+        <v>7060627</v>
       </c>
       <c r="S35" t="n">
         <v>15</v>
@@ -4298,10 +4288,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131092585</v>
+        <v>131092590</v>
       </c>
       <c r="B36" t="n">
-        <v>91804</v>
+        <v>79243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4309,21 +4299,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4333,13 +4323,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585130</v>
+        <v>585145</v>
       </c>
       <c r="R36" t="n">
-        <v>7060263</v>
+        <v>7060230</v>
       </c>
       <c r="S36" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4366,9 +4356,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4383,12 +4383,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131085805</v>
+        <v>131085613</v>
       </c>
       <c r="B7" t="n">
-        <v>79243</v>
+        <v>57884</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,37 +1251,42 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585215</v>
+        <v>585222</v>
       </c>
       <c r="R7" t="n">
-        <v>7060513</v>
+        <v>7060481</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1310,7 +1315,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1320,7 +1325,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,22 +1345,22 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131092646</v>
+        <v>131085805</v>
       </c>
       <c r="B8" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1382,13 +1392,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585082</v>
+        <v>585215</v>
       </c>
       <c r="R8" t="n">
-        <v>7060264</v>
+        <v>7060513</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1415,9 +1425,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1432,22 +1452,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131086958</v>
+        <v>131092646</v>
       </c>
       <c r="B9" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1479,13 +1499,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585165</v>
+        <v>585082</v>
       </c>
       <c r="R9" t="n">
-        <v>7060565</v>
+        <v>7060264</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1512,19 +1532,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12:22</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>12:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,22 +1549,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131085613</v>
+        <v>131086958</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,42 +1572,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585222</v>
+        <v>585165</v>
       </c>
       <c r="R10" t="n">
-        <v>7060481</v>
+        <v>7060565</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1626,7 +1631,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1636,12 +1641,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,22 +1656,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131085696</v>
+        <v>131087481</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,42 +1679,33 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>585207</v>
+        <v>585150</v>
       </c>
       <c r="R11" t="n">
-        <v>7060471</v>
+        <v>7060657</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1741,24 +1732,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1773,22 +1749,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131087481</v>
+        <v>131085696</v>
       </c>
       <c r="B12" t="n">
-        <v>91828</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1796,33 +1772,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>585150</v>
+        <v>585207</v>
       </c>
       <c r="R12" t="n">
-        <v>7060657</v>
+        <v>7060471</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1849,9 +1834,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,12 +1866,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -1881,7 +1881,7 @@
         <v>131085209</v>
       </c>
       <c r="B13" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>131085114</v>
       </c>
       <c r="B14" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>131085107</v>
       </c>
       <c r="B16" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>131092560</v>
       </c>
       <c r="B18" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>131085737</v>
       </c>
       <c r="B19" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2608,7 +2608,7 @@
         <v>131085446</v>
       </c>
       <c r="B20" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2939,7 +2939,7 @@
         <v>131085201</v>
       </c>
       <c r="B23" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>131085180</v>
       </c>
       <c r="B25" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3571,7 +3571,7 @@
         <v>131085178</v>
       </c>
       <c r="B29" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         <v>131092585</v>
       </c>
       <c r="B32" t="n">
-        <v>91804</v>
+        <v>91805</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131085126</v>
+        <v>131085569</v>
       </c>
       <c r="B33" t="n">
-        <v>57064</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,39 +4003,34 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585219</v>
+        <v>585249</v>
       </c>
       <c r="R33" t="n">
-        <v>7060240</v>
+        <v>7060505</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4094,10 +4089,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131085569</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4129,10 +4124,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585249</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060505</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
         <v>15</v>
@@ -4191,10 +4186,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B35" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4226,13 +4221,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R35" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4259,9 +4254,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4276,22 +4281,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131092590</v>
+        <v>131085126</v>
       </c>
       <c r="B36" t="n">
-        <v>79243</v>
+        <v>57064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4299,37 +4304,42 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585145</v>
+        <v>585219</v>
       </c>
       <c r="R36" t="n">
-        <v>7060230</v>
+        <v>7060240</v>
       </c>
       <c r="S36" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4356,19 +4366,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4383,12 +4383,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1240,10 +1240,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131085613</v>
+        <v>131092646</v>
       </c>
       <c r="B7" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1251,39 +1251,34 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P7" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585222</v>
+        <v>585082</v>
       </c>
       <c r="R7" t="n">
-        <v>7060481</v>
+        <v>7060264</v>
       </c>
       <c r="S7" t="n">
         <v>15</v>
@@ -1313,24 +1308,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1357,7 +1337,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131085805</v>
+        <v>131086958</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1392,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585215</v>
+        <v>585165</v>
       </c>
       <c r="R8" t="n">
-        <v>7060513</v>
+        <v>7060565</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1427,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1437,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,7 +1444,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131092646</v>
+        <v>131085805</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1499,13 +1479,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585082</v>
+        <v>585215</v>
       </c>
       <c r="R9" t="n">
-        <v>7060264</v>
+        <v>7060513</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1532,9 +1512,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1549,22 +1539,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131086958</v>
+        <v>131085613</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,37 +1562,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585165</v>
+        <v>585222</v>
       </c>
       <c r="R10" t="n">
-        <v>7060565</v>
+        <v>7060481</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1631,7 +1626,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1641,7 +1636,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,12 +1656,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131092560</v>
+        <v>131085737</v>
       </c>
       <c r="B18" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585129</v>
+        <v>585170</v>
       </c>
       <c r="R18" t="n">
-        <v>7060254</v>
+        <v>7060469</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2486,19 +2486,19 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131085737</v>
+        <v>131085446</v>
       </c>
       <c r="B19" t="n">
         <v>79244</v>
@@ -2533,13 +2533,13 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585170</v>
+        <v>585301</v>
       </c>
       <c r="R19" t="n">
-        <v>7060469</v>
+        <v>7060488</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2568,7 +2568,7 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
@@ -2578,7 +2578,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2593,22 +2593,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131085446</v>
+        <v>131092554</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,37 +2616,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585301</v>
+        <v>585147</v>
       </c>
       <c r="R20" t="n">
-        <v>7060488</v>
+        <v>7060312</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2673,19 +2678,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>11:41</t>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2700,22 +2700,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092554</v>
+        <v>131092560</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,42 +2723,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585147</v>
+        <v>585129</v>
       </c>
       <c r="R21" t="n">
-        <v>7060312</v>
+        <v>7060254</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2785,14 +2780,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,12 +2807,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3568,10 +3568,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085178</v>
+        <v>131085240</v>
       </c>
       <c r="B29" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3579,30 +3579,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585225</v>
+        <v>585289</v>
       </c>
       <c r="R29" t="n">
-        <v>7060258</v>
+        <v>7060293</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3634,7 +3643,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3644,7 +3653,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3671,10 +3685,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085484</v>
+        <v>131085178</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,42 +3696,33 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585303</v>
+        <v>585225</v>
       </c>
       <c r="R30" t="n">
-        <v>7060488</v>
+        <v>7060258</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3744,14 +3749,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3766,19 +3776,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085240</v>
+        <v>131085484</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3818,13 +3828,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585289</v>
+        <v>585303</v>
       </c>
       <c r="R31" t="n">
-        <v>7060293</v>
+        <v>7060488</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3851,24 +3861,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Ringhack på tall</t>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3883,22 +3883,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131092585</v>
+        <v>131085569</v>
       </c>
       <c r="B32" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585130</v>
+        <v>585249</v>
       </c>
       <c r="R32" t="n">
-        <v>7060263</v>
+        <v>7060505</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131085569</v>
+        <v>131087388</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585249</v>
+        <v>585131</v>
       </c>
       <c r="R33" t="n">
-        <v>7060505</v>
+        <v>7060627</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R34" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,9 +4157,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4174,22 +4184,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092590</v>
+        <v>131092585</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4197,21 +4207,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4221,13 +4231,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585145</v>
+        <v>585130</v>
       </c>
       <c r="R35" t="n">
-        <v>7060230</v>
+        <v>7060263</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4254,19 +4264,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,12 +4281,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1337,7 +1337,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131086958</v>
+        <v>131085805</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1372,10 +1372,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585165</v>
+        <v>585215</v>
       </c>
       <c r="R8" t="n">
-        <v>7060565</v>
+        <v>7060513</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,7 +1444,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131085805</v>
+        <v>131086958</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585215</v>
+        <v>585165</v>
       </c>
       <c r="R9" t="n">
-        <v>7060513</v>
+        <v>7060565</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1524,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:01</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1668,10 +1668,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131087481</v>
+        <v>131085696</v>
       </c>
       <c r="B11" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,33 +1679,42 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>585150</v>
+        <v>585207</v>
       </c>
       <c r="R11" t="n">
-        <v>7060657</v>
+        <v>7060471</v>
       </c>
       <c r="S11" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1732,9 +1741,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1749,22 +1773,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131085696</v>
+        <v>131087481</v>
       </c>
       <c r="B12" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1772,42 +1796,33 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>585207</v>
+        <v>585150</v>
       </c>
       <c r="R12" t="n">
-        <v>7060471</v>
+        <v>7060657</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1834,24 +1849,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,12 +1866,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131085737</v>
+        <v>131092560</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585170</v>
+        <v>585129</v>
       </c>
       <c r="R18" t="n">
-        <v>7060469</v>
+        <v>7060254</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2486,12 +2486,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131092554</v>
+        <v>131085737</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,39 +2616,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585147</v>
+        <v>585170</v>
       </c>
       <c r="R20" t="n">
-        <v>7060312</v>
+        <v>7060469</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2678,14 +2673,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2712,10 +2712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092560</v>
+        <v>131092554</v>
       </c>
       <c r="B21" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,37 +2723,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585129</v>
+        <v>585147</v>
       </c>
       <c r="R21" t="n">
-        <v>7060254</v>
+        <v>7060312</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2780,19 +2785,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>15:17</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,12 +2807,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085171</v>
+        <v>131085178</v>
       </c>
       <c r="B28" t="n">
-        <v>91805</v>
+        <v>91829</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,23 +3482,19 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3506,13 +3502,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585222</v>
+        <v>585225</v>
       </c>
       <c r="R28" t="n">
-        <v>7060254</v>
+        <v>7060258</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3539,9 +3535,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3556,22 +3562,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085240</v>
+        <v>131085171</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3579,42 +3585,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585289</v>
+        <v>585222</v>
       </c>
       <c r="R29" t="n">
-        <v>7060293</v>
+        <v>7060254</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3641,24 +3642,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3673,22 +3659,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085178</v>
+        <v>131085484</v>
       </c>
       <c r="B30" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3696,33 +3682,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585225</v>
+        <v>585303</v>
       </c>
       <c r="R30" t="n">
-        <v>7060258</v>
+        <v>7060488</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3749,19 +3744,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:08</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3776,19 +3766,19 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085484</v>
+        <v>131085240</v>
       </c>
       <c r="B31" t="n">
         <v>57884</v>
@@ -3828,13 +3818,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585303</v>
+        <v>585289</v>
       </c>
       <c r="R31" t="n">
-        <v>7060488</v>
+        <v>7060293</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3861,14 +3851,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>Färska ringhack gran</t>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3883,12 +3883,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131087388</v>
+        <v>131092585</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,21 +4003,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585131</v>
+        <v>585130</v>
       </c>
       <c r="R33" t="n">
-        <v>7060627</v>
+        <v>7060263</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131092590</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585145</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060230</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,19 +4157,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4184,22 +4174,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092585</v>
+        <v>131092590</v>
       </c>
       <c r="B35" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4207,21 +4197,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4231,13 +4221,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585130</v>
+        <v>585145</v>
       </c>
       <c r="R35" t="n">
-        <v>7060263</v>
+        <v>7060230</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4264,9 +4254,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,12 +4281,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131092646</v>
+        <v>131085805</v>
       </c>
       <c r="B7" t="n">
         <v>79244</v>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585082</v>
+        <v>585215</v>
       </c>
       <c r="R7" t="n">
-        <v>7060264</v>
+        <v>7060513</v>
       </c>
       <c r="S7" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1308,9 +1308,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>12:01</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1325,19 +1335,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131085805</v>
+        <v>131092646</v>
       </c>
       <c r="B8" t="n">
         <v>79244</v>
@@ -1372,13 +1382,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585215</v>
+        <v>585082</v>
       </c>
       <c r="R8" t="n">
-        <v>7060513</v>
+        <v>7060264</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1405,19 +1415,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>12:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1432,12 +1432,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131092560</v>
+        <v>131085737</v>
       </c>
       <c r="B18" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585129</v>
+        <v>585170</v>
       </c>
       <c r="R18" t="n">
-        <v>7060254</v>
+        <v>7060469</v>
       </c>
       <c r="S18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2486,12 +2486,12 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131085737</v>
+        <v>131086957</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,37 +2616,42 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585170</v>
+        <v>585162</v>
       </c>
       <c r="R20" t="n">
-        <v>7060469</v>
+        <v>7060573</v>
       </c>
       <c r="S20" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2675,7 +2680,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2685,7 +2690,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2700,22 +2710,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092554</v>
+        <v>131092560</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,42 +2733,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585147</v>
+        <v>585129</v>
       </c>
       <c r="R21" t="n">
-        <v>7060312</v>
+        <v>7060254</v>
       </c>
       <c r="S21" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2785,14 +2790,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>15:17</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2807,19 +2817,19 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131086957</v>
+        <v>131092554</v>
       </c>
       <c r="B22" t="n">
         <v>57884</v>
@@ -2850,7 +2860,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska spår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2859,13 +2869,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585162</v>
+        <v>585147</v>
       </c>
       <c r="R22" t="n">
-        <v>7060573</v>
+        <v>7060312</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2892,24 +2902,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>12:21</t>
-        </is>
-      </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>Ringhack på gran</t>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2924,12 +2924,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085178</v>
+        <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>91829</v>
+        <v>91805</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,19 +3482,23 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3502,13 +3506,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585225</v>
+        <v>585222</v>
       </c>
       <c r="R28" t="n">
-        <v>7060258</v>
+        <v>7060254</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3535,19 +3539,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3562,22 +3556,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085171</v>
+        <v>131085178</v>
       </c>
       <c r="B29" t="n">
-        <v>91805</v>
+        <v>91829</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,23 +3579,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3609,13 +3599,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585222</v>
+        <v>585225</v>
       </c>
       <c r="R29" t="n">
-        <v>7060254</v>
+        <v>7060258</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3642,9 +3632,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3659,12 +3659,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131092585</v>
+        <v>131087388</v>
       </c>
       <c r="B33" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4003,21 +4003,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585130</v>
+        <v>585131</v>
       </c>
       <c r="R33" t="n">
-        <v>7060263</v>
+        <v>7060627</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R34" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,9 +4157,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4174,22 +4184,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092590</v>
+        <v>131092585</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4197,21 +4207,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4221,13 +4231,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585145</v>
+        <v>585130</v>
       </c>
       <c r="R35" t="n">
-        <v>7060230</v>
+        <v>7060263</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4254,19 +4264,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,12 +4281,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1347,10 +1347,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131092646</v>
+        <v>131085613</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1358,34 +1358,39 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585082</v>
+        <v>585222</v>
       </c>
       <c r="R8" t="n">
-        <v>7060264</v>
+        <v>7060481</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1415,9 +1420,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1444,7 +1464,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131086958</v>
+        <v>131092646</v>
       </c>
       <c r="B9" t="n">
         <v>79244</v>
@@ -1479,13 +1499,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585165</v>
+        <v>585082</v>
       </c>
       <c r="R9" t="n">
-        <v>7060565</v>
+        <v>7060264</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1512,19 +1532,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>12:22</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>12:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,22 +1549,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131085613</v>
+        <v>131086958</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,42 +1572,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585222</v>
+        <v>585165</v>
       </c>
       <c r="R10" t="n">
-        <v>7060481</v>
+        <v>7060565</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1626,7 +1631,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1636,12 +1641,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,22 +1656,22 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131085696</v>
+        <v>131087481</v>
       </c>
       <c r="B11" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1679,42 +1679,33 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>585207</v>
+        <v>585150</v>
       </c>
       <c r="R11" t="n">
-        <v>7060471</v>
+        <v>7060657</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1741,24 +1732,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>11:55</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1773,22 +1749,22 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131087481</v>
+        <v>131085696</v>
       </c>
       <c r="B12" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1796,33 +1772,42 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>585150</v>
+        <v>585207</v>
       </c>
       <c r="R12" t="n">
-        <v>7060657</v>
+        <v>7060471</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1849,9 +1834,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1866,12 +1866,12 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY12" t="inlineStr"/>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131085446</v>
+        <v>131092554</v>
       </c>
       <c r="B19" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,37 +2509,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585301</v>
+        <v>585147</v>
       </c>
       <c r="R19" t="n">
-        <v>7060488</v>
+        <v>7060312</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2566,19 +2571,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>11:41</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2593,12 +2593,12 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131092554</v>
+        <v>131085446</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,42 +2840,37 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585147</v>
+        <v>585301</v>
       </c>
       <c r="R22" t="n">
-        <v>7060312</v>
+        <v>7060488</v>
       </c>
       <c r="S22" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -2902,14 +2897,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2924,12 +2924,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr"/>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085171</v>
+        <v>131085484</v>
       </c>
       <c r="B28" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,34 +3482,39 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585222</v>
+        <v>585303</v>
       </c>
       <c r="R28" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3542,6 +3547,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3568,10 +3578,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085178</v>
+        <v>131085240</v>
       </c>
       <c r="B29" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3579,30 +3589,39 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585225</v>
+        <v>585289</v>
       </c>
       <c r="R29" t="n">
-        <v>7060258</v>
+        <v>7060293</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3634,7 +3653,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
@@ -3644,7 +3663,12 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3671,10 +3695,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085484</v>
+        <v>131085171</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91805</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,39 +3706,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585303</v>
+        <v>585222</v>
       </c>
       <c r="R30" t="n">
-        <v>7060488</v>
+        <v>7060254</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3747,11 +3766,6 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3778,10 +3792,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085240</v>
+        <v>131085178</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91829</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3789,39 +3803,30 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585289</v>
+        <v>585225</v>
       </c>
       <c r="R31" t="n">
-        <v>7060293</v>
+        <v>7060258</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3853,7 +3858,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:16</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3863,12 +3868,7 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131085569</v>
+        <v>131092585</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>91805</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585249</v>
+        <v>585130</v>
       </c>
       <c r="R32" t="n">
-        <v>7060505</v>
+        <v>7060263</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,7 +3992,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131087388</v>
+        <v>131085569</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585131</v>
+        <v>585249</v>
       </c>
       <c r="R33" t="n">
-        <v>7060627</v>
+        <v>7060505</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4089,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131092590</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
         <v>79244</v>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585145</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060230</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,19 +4157,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4184,22 +4174,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092585</v>
+        <v>131092590</v>
       </c>
       <c r="B35" t="n">
-        <v>91805</v>
+        <v>79244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4207,21 +4197,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4231,13 +4221,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585130</v>
+        <v>585145</v>
       </c>
       <c r="R35" t="n">
-        <v>7060263</v>
+        <v>7060230</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4264,9 +4254,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,12 +4281,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1243,7 +1243,7 @@
         <v>131085805</v>
       </c>
       <c r="B7" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131085613</v>
+        <v>131092646</v>
       </c>
       <c r="B8" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1358,39 +1358,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585222</v>
+        <v>585082</v>
       </c>
       <c r="R8" t="n">
-        <v>7060481</v>
+        <v>7060264</v>
       </c>
       <c r="S8" t="n">
         <v>15</v>
@@ -1420,24 +1415,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,10 +1444,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131092646</v>
+        <v>131086958</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1499,13 +1479,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585082</v>
+        <v>585165</v>
       </c>
       <c r="R9" t="n">
-        <v>7060264</v>
+        <v>7060565</v>
       </c>
       <c r="S9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1532,9 +1512,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1549,22 +1539,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131086958</v>
+        <v>131085613</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1572,37 +1562,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585165</v>
+        <v>585222</v>
       </c>
       <c r="R10" t="n">
-        <v>7060565</v>
+        <v>7060481</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1631,7 +1626,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1641,7 +1636,12 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,12 +1656,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
         <v>131087481</v>
       </c>
       <c r="B11" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>131085209</v>
       </c>
       <c r="B13" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>131085114</v>
       </c>
       <c r="B14" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>131085107</v>
       </c>
       <c r="B16" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>131085737</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131092554</v>
+        <v>131085446</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,42 +2509,37 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585147</v>
+        <v>585301</v>
       </c>
       <c r="R19" t="n">
-        <v>7060312</v>
+        <v>7060488</v>
       </c>
       <c r="S19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2571,14 +2566,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:41</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2593,22 +2593,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131086957</v>
+        <v>131092560</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>91806</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,39 +2616,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585162</v>
+        <v>585129</v>
       </c>
       <c r="R20" t="n">
-        <v>7060573</v>
+        <v>7060254</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2680,7 +2675,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2690,12 +2685,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2722,10 +2712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092560</v>
+        <v>131092554</v>
       </c>
       <c r="B21" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2733,37 +2723,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585129</v>
+        <v>585147</v>
       </c>
       <c r="R21" t="n">
-        <v>7060254</v>
+        <v>7060312</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2790,19 +2785,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>15:17</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>15:17</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2817,22 +2807,22 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131085446</v>
+        <v>131086957</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,34 +2830,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585301</v>
+        <v>585162</v>
       </c>
       <c r="R22" t="n">
-        <v>7060488</v>
+        <v>7060573</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2894,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2909,7 +2904,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2939,7 +2939,7 @@
         <v>131085201</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3163,7 +3163,7 @@
         <v>131085180</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085484</v>
+        <v>131085178</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>91830</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,42 +3482,33 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585303</v>
+        <v>585225</v>
       </c>
       <c r="R28" t="n">
-        <v>7060488</v>
+        <v>7060258</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3544,14 +3535,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3566,22 +3562,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085240</v>
+        <v>131085171</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91806</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3589,42 +3585,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585289</v>
+        <v>585222</v>
       </c>
       <c r="R29" t="n">
-        <v>7060293</v>
+        <v>7060254</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3651,24 +3642,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3683,22 +3659,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085171</v>
+        <v>131085484</v>
       </c>
       <c r="B30" t="n">
-        <v>91805</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3706,34 +3682,39 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585222</v>
+        <v>585303</v>
       </c>
       <c r="R30" t="n">
-        <v>7060254</v>
+        <v>7060488</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -3766,6 +3747,11 @@
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3792,10 +3778,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085178</v>
+        <v>131085240</v>
       </c>
       <c r="B31" t="n">
-        <v>91829</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3803,30 +3789,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585225</v>
+        <v>585289</v>
       </c>
       <c r="R31" t="n">
-        <v>7060258</v>
+        <v>7060293</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3858,7 +3853,7 @@
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
@@ -3868,7 +3863,12 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>11:08</t>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131092585</v>
+        <v>131085569</v>
       </c>
       <c r="B32" t="n">
-        <v>91805</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,21 +3906,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1108</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3930,10 +3930,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585130</v>
+        <v>585249</v>
       </c>
       <c r="R32" t="n">
-        <v>7060263</v>
+        <v>7060505</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,10 +3992,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131085569</v>
+        <v>131087388</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4027,10 +4027,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585249</v>
+        <v>585131</v>
       </c>
       <c r="R33" t="n">
-        <v>7060505</v>
+        <v>7060627</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,10 +4089,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131087388</v>
+        <v>131092590</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4124,13 +4124,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585131</v>
+        <v>585145</v>
       </c>
       <c r="R34" t="n">
-        <v>7060627</v>
+        <v>7060230</v>
       </c>
       <c r="S34" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,9 +4157,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4174,22 +4184,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131092590</v>
+        <v>131085126</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>57064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4197,37 +4207,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585145</v>
+        <v>585219</v>
       </c>
       <c r="R35" t="n">
-        <v>7060230</v>
+        <v>7060240</v>
       </c>
       <c r="S35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4254,19 +4269,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4281,22 +4286,22 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131085126</v>
+        <v>131092585</v>
       </c>
       <c r="B36" t="n">
-        <v>57064</v>
+        <v>91806</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4304,39 +4309,34 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>102612</v>
+        <v>1108</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585219</v>
+        <v>585130</v>
       </c>
       <c r="R36" t="n">
-        <v>7060240</v>
+        <v>7060263</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085178</v>
+        <v>131085484</v>
       </c>
       <c r="B28" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,33 +3482,42 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585225</v>
+        <v>585303</v>
       </c>
       <c r="R28" t="n">
-        <v>7060258</v>
+        <v>7060488</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3535,19 +3544,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:08</t>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3562,22 +3566,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085171</v>
+        <v>131085240</v>
       </c>
       <c r="B29" t="n">
-        <v>91806</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,37 +3589,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585222</v>
+        <v>585289</v>
       </c>
       <c r="R29" t="n">
-        <v>7060254</v>
+        <v>7060293</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3642,9 +3651,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3659,22 +3683,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085484</v>
+        <v>131085178</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>91830</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3682,42 +3706,33 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585303</v>
+        <v>585225</v>
       </c>
       <c r="R30" t="n">
-        <v>7060488</v>
+        <v>7060258</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3744,14 +3759,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3766,22 +3786,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085240</v>
+        <v>131085171</v>
       </c>
       <c r="B31" t="n">
-        <v>57884</v>
+        <v>91806</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3789,42 +3809,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585289</v>
+        <v>585222</v>
       </c>
       <c r="R31" t="n">
-        <v>7060293</v>
+        <v>7060254</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3851,24 +3866,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3883,12 +3883,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -2391,10 +2391,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131085737</v>
+        <v>131092560</v>
       </c>
       <c r="B18" t="n">
-        <v>79245</v>
+        <v>91806</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2402,21 +2402,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6425</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2426,13 +2426,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>585170</v>
+        <v>585129</v>
       </c>
       <c r="R18" t="n">
-        <v>7060469</v>
+        <v>7060254</v>
       </c>
       <c r="S18" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2461,7 +2461,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>11:58</t>
+          <t>15:17</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2486,22 +2486,22 @@
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX18" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131085446</v>
+        <v>131092554</v>
       </c>
       <c r="B19" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,37 +2509,42 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585301</v>
+        <v>585147</v>
       </c>
       <c r="R19" t="n">
-        <v>7060488</v>
+        <v>7060312</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2566,19 +2571,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>11:41</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>11:41</t>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2593,22 +2593,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131092560</v>
+        <v>131086957</v>
       </c>
       <c r="B20" t="n">
-        <v>91806</v>
+        <v>57884</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,34 +2616,39 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585129</v>
+        <v>585162</v>
       </c>
       <c r="R20" t="n">
-        <v>7060254</v>
+        <v>7060573</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2675,7 +2680,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2685,7 +2690,12 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>15:17</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2712,10 +2722,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131092554</v>
+        <v>131085737</v>
       </c>
       <c r="B21" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2723,39 +2733,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585147</v>
+        <v>585170</v>
       </c>
       <c r="R21" t="n">
-        <v>7060312</v>
+        <v>7060469</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2785,14 +2790,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2819,10 +2829,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131086957</v>
+        <v>131085446</v>
       </c>
       <c r="B22" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2830,39 +2840,34 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585162</v>
+        <v>585301</v>
       </c>
       <c r="R22" t="n">
-        <v>7060573</v>
+        <v>7060488</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2894,7 +2899,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2904,12 +2909,7 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085484</v>
+        <v>131085178</v>
       </c>
       <c r="B28" t="n">
-        <v>57884</v>
+        <v>91830</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,42 +3482,33 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585303</v>
+        <v>585225</v>
       </c>
       <c r="R28" t="n">
-        <v>7060488</v>
+        <v>7060258</v>
       </c>
       <c r="S28" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3544,14 +3535,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3566,22 +3562,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085240</v>
+        <v>131085171</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>91806</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3589,42 +3585,37 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>1108</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585289</v>
+        <v>585222</v>
       </c>
       <c r="R29" t="n">
-        <v>7060293</v>
+        <v>7060254</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3651,24 +3642,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>11:16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3683,22 +3659,22 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131085178</v>
+        <v>131085484</v>
       </c>
       <c r="B30" t="n">
-        <v>91830</v>
+        <v>57884</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3706,33 +3682,42 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr"/>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>585225</v>
+        <v>585303</v>
       </c>
       <c r="R30" t="n">
-        <v>7060258</v>
+        <v>7060488</v>
       </c>
       <c r="S30" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3759,19 +3744,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>11:08</t>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3786,22 +3766,22 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131085171</v>
+        <v>131085240</v>
       </c>
       <c r="B31" t="n">
-        <v>91806</v>
+        <v>57884</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3809,37 +3789,42 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1108</v>
+        <v>100109</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>585222</v>
+        <v>585289</v>
       </c>
       <c r="R31" t="n">
-        <v>7060254</v>
+        <v>7060293</v>
       </c>
       <c r="S31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3866,9 +3851,24 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>11:16</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Ringhack på tall</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3883,22 +3883,22 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131085569</v>
+        <v>131085126</v>
       </c>
       <c r="B32" t="n">
-        <v>79245</v>
+        <v>57064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,34 +3906,39 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>102612</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585249</v>
+        <v>585219</v>
       </c>
       <c r="R32" t="n">
-        <v>7060505</v>
+        <v>7060240</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -3992,7 +3997,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131087388</v>
+        <v>131085569</v>
       </c>
       <c r="B33" t="n">
         <v>79245</v>
@@ -4027,10 +4032,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>585131</v>
+        <v>585249</v>
       </c>
       <c r="R33" t="n">
-        <v>7060627</v>
+        <v>7060505</v>
       </c>
       <c r="S33" t="n">
         <v>15</v>
@@ -4089,7 +4094,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>131092590</v>
+        <v>131087388</v>
       </c>
       <c r="B34" t="n">
         <v>79245</v>
@@ -4124,13 +4129,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>585145</v>
+        <v>585131</v>
       </c>
       <c r="R34" t="n">
-        <v>7060230</v>
+        <v>7060627</v>
       </c>
       <c r="S34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4157,19 +4162,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>15:20</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>15:20</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4184,22 +4179,22 @@
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131085126</v>
+        <v>131092590</v>
       </c>
       <c r="B35" t="n">
-        <v>57064</v>
+        <v>79245</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4207,42 +4202,37 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>102612</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>585219</v>
+        <v>585145</v>
       </c>
       <c r="R35" t="n">
-        <v>7060240</v>
+        <v>7060230</v>
       </c>
       <c r="S35" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4269,9 +4259,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>15:20</t>
+        </is>
+      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>15:20</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4286,12 +4286,12 @@
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX35" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY35" t="inlineStr"/>

--- a/artfynd/A 3222-2026 artfynd.xlsx
+++ b/artfynd/A 3222-2026 artfynd.xlsx
@@ -1240,7 +1240,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131085805</v>
+        <v>131092646</v>
       </c>
       <c r="B7" t="n">
         <v>79245</v>
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>585215</v>
+        <v>585082</v>
       </c>
       <c r="R7" t="n">
-        <v>7060513</v>
+        <v>7060264</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1308,19 +1308,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>12:01</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>12:01</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1335,19 +1325,19 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131092646</v>
+        <v>131086958</v>
       </c>
       <c r="B8" t="n">
         <v>79245</v>
@@ -1382,13 +1372,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>585082</v>
+        <v>585165</v>
       </c>
       <c r="R8" t="n">
-        <v>7060264</v>
+        <v>7060565</v>
       </c>
       <c r="S8" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1415,9 +1405,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>12:22</t>
+        </is>
+      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>12:22</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1432,22 +1432,22 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131086958</v>
+        <v>131085613</v>
       </c>
       <c r="B9" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1455,37 +1455,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>585165</v>
+        <v>585222</v>
       </c>
       <c r="R9" t="n">
-        <v>7060565</v>
+        <v>7060481</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1514,7 +1519,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1524,7 +1529,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>12:22</t>
+          <t>11:52</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Färska ringhack gran</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1539,22 +1549,22 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131085613</v>
+        <v>131085805</v>
       </c>
       <c r="B10" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1562,42 +1572,37 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>585222</v>
+        <v>585215</v>
       </c>
       <c r="R10" t="n">
-        <v>7060481</v>
+        <v>7060513</v>
       </c>
       <c r="S10" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1626,7 +1631,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>11:52</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1636,12 +1641,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>11:52</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>Färska ringhack gran</t>
+          <t>12:01</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1656,12 +1656,12 @@
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr"/>
@@ -1671,7 +1671,7 @@
         <v>131087481</v>
       </c>
       <c r="B11" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>131085209</v>
       </c>
       <c r="B13" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1984,7 +1984,7 @@
         <v>131085114</v>
       </c>
       <c r="B14" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>131085107</v>
       </c>
       <c r="B16" t="n">
-        <v>91830</v>
+        <v>91833</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2394,7 +2394,7 @@
         <v>131092560</v>
       </c>
       <c r="B18" t="n">
-        <v>91806</v>
+        <v>91809</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2498,10 +2498,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131092554</v>
+        <v>131085737</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2509,39 +2509,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>585147</v>
+        <v>585170</v>
       </c>
       <c r="R19" t="n">
-        <v>7060312</v>
+        <v>7060469</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2571,14 +2566,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>11:58</t>
+        </is>
+      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>Äldre ringhack, gran</t>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>11:58</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2605,10 +2605,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131086957</v>
+        <v>131085446</v>
       </c>
       <c r="B20" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2616,39 +2616,34 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>585162</v>
+        <v>585301</v>
       </c>
       <c r="R20" t="n">
-        <v>7060573</v>
+        <v>7060488</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2680,7 +2675,7 @@
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>12:21</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
@@ -2690,12 +2685,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>12:21</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>Ringhack på gran</t>
+          <t>11:41</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2722,10 +2712,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131085737</v>
+        <v>131092554</v>
       </c>
       <c r="B21" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2733,34 +2723,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>585170</v>
+        <v>585147</v>
       </c>
       <c r="R21" t="n">
-        <v>7060469</v>
+        <v>7060312</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -2790,19 +2785,14 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>11:58</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>11:58</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Äldre ringhack, gran</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2829,10 +2819,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131085446</v>
+        <v>131086957</v>
       </c>
       <c r="B22" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2840,34 +2830,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>585301</v>
+        <v>585162</v>
       </c>
       <c r="R22" t="n">
-        <v>7060488</v>
+        <v>7060573</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2899,7 +2894,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
@@ -2909,7 +2904,12 @@
       </c>
       <c r="AB22" t="inlineStr">
         <is>
-          <t>11:41</t>
+          <t>12:21</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Ringhack på gran</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3471,10 +3471,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131085178</v>
+        <v>131085171</v>
       </c>
       <c r="B28" t="n">
-        <v>91830</v>
+        <v>91809</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3482,19 +3482,23 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5432</v>
+        <v>1108</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr"/>
+          <t>Pelloporus leporinus</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3502,13 +3506,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>585225</v>
+        <v>585222</v>
       </c>
       <c r="R28" t="n">
-        <v>7060258</v>
+        <v>7060254</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3535,19 +3539,9 @@
           <t>2026-02-09</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>11:08</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-09</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>11:08</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3562,22 +3556,22 @@
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Kim Hultgren</t>
+          <t>Daniel Rutschman</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131085171</v>
+        <v>131085178</v>
       </c>
       <c r="B29" t="n">
-        <v>91806</v>
+        <v>91833</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3585,23 +3579,19 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1108</v>
+        <v>5432</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
@@ -3609,13 +3599,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>585222</v>
+        <v>585225</v>
       </c>
       <c r="R29" t="n">
-        <v>7060254</v>
+        <v>7060258</v>
       </c>
       <c r="S29" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3642,9 +3632,19 @@
           <t>2026-02-09</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>11:08</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-09</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>11:08</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3659,12 +3659,12 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Daniel Rutschman</t>
+          <t>Kim Hultgren</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -3895,10 +3895,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131085126</v>
+        <v>131092585</v>
       </c>
       <c r="B32" t="n">
-        <v>57064</v>
+        <v>91809</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3906,39 +3906,34 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>102612</v>
+        <v>1108</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>585219</v>
+        <v>585130</v>
       </c>
       <c r="R32" t="n">
-        <v>7060240</v>
+        <v>7060263</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4298,10 +4293,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131092585</v>
+        <v>131085126</v>
       </c>
       <c r="B36" t="n">
-        <v>91806</v>
+        <v>57064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4309,34 +4304,39 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1108</v>
+        <v>102612</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Sör-Tågsjöberget, Sör-Tågsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>585130</v>
+        <v>585219</v>
       </c>
       <c r="R36" t="n">
-        <v>7060263</v>
+        <v>7060240</v>
       </c>
       <c r="S36" t="n">
         <v>15</v>
